--- a/collection_python/fund/fund_stock.xlsx
+++ b/collection_python/fund/fund_stock.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,107 +476,163 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接基金C</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003311</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>002984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>霍华明</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>中国平安[601318](5.53%)</t>
+          <t>玉禾田[300815](0%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>招商银行[600036](3.45%)</t>
+          <t>宁德时代[300750](0%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](3.36%)</t>
+          <t>帝尔激光[300776](0%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>美的集团[000333](2.32%)</t>
+          <t>迈为股份[300751](0%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>农业银行[601288](2.22%)</t>
+          <t>捷佳伟创[300724](0%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>北京银行[601169](2.04%)</t>
+          <t>璞泰来[603659](0%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>双汇发展[000895](2.02%)</t>
+          <t>天赐材料[002709](0%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>中国银行[601988](1.94%)</t>
+          <t>阳光电源[300274](0%)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>中信银行[601998](1.72%)</t>
+          <t>隆基股份[601012](0%)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>贵阳银行[601997](1.68%)</t>
+          <t>晶澳科技[002459](0%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>汇添富恒生指数(QDII-LOF)C</t>
+          <t>大成深证成长40ETF联接</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010789</t>
+          <t>090012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>赖中立</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>苏秉毅 张钟玉 刘淼</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>立讯精密[002475](0.15%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>迈瑞医疗[300760](0.14%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>智飞生物[300122](0.08%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>顺丰控股[002352](0.07%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>东方雨虹[002271](0.06%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>长春高新[000661](0.06%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>三七互娱[002555](0.05%)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>乐普医疗[300003](0.04%)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>视源股份[002841](0.03%)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>卫宁健康[300253](0.03%)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>华润元大成长精选A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>004891</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>袁芳</t>
+          <t>李武群 刘宏毅</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -586,69 +642,69 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>春风动力[603129](3.94%)</t>
+          <t>金域医学[603882](1.4%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>伊利股份[600887](3.8%)</t>
+          <t>沙钢股份[002075](1.35%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>五粮液[000858](3.74%)</t>
+          <t>宏发股份[600885](1.33%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>中国巨石[600176](3.55%)</t>
+          <t>天坛生物[600161](1.33%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>福耀玻璃[600660](3.45%)</t>
+          <t>辽宁成大[600739](1.3%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>鹏鼎控股[002938](3.44%)</t>
+          <t>欧普康视[300595](1.28%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>分众传媒[002027](3.03%)</t>
+          <t>掌趣科技[300315](1.28%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>吉比特[603444](2.97%)</t>
+          <t>光迅科技[002281](1.23%)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>中国平安[601318](2.83%)</t>
+          <t>迪安诊断[300244](1.22%)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>杭氧股份[002430](2.6%)</t>
+          <t>安琪酵母[600298](1.22%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010685</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>赵蓓</t>
+          <t>黄瑞庆 林景艺</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -658,184 +714,364 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](7.41%)</t>
+          <t>中国平安[601318](6.74%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>智飞生物[300122](6.36%)</t>
+          <t>贵州茅台[600519](3.24%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>长春高新[000661](5.62%)</t>
+          <t>中信证券[600030](1.79%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>健帆生物[300529](5.3%)</t>
+          <t>交通银行[601328](1.67%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.26%)</t>
+          <t>恒瑞医药[600276](1.45%)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](4.75%)</t>
+          <t>三一重工[600031](1.36%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.63%)</t>
+          <t>万科A[000002](1.27%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>英科医疗[300677](4.59%)</t>
+          <t>隆基股份[601012](1.26%)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>九洲药业[603456](4.24%)</t>
+          <t>海螺水泥[600585](1.23%)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.92%)</t>
+          <t>华夏银行[600015](1.17%)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>民生加银成长优选股票</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010420</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>孙伟</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>雷俊</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>永安行[603776](3.77%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>天赐材料[002709](3.74%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>建设机械[600984](3.73%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>中油工程[600339](3.55%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>利尔化学[002258](3.4%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>太平鸟[603877](3.1%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>裕同科技[002831](3.04%)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>丽珠集团[000513](2.8%)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>中牧股份[600195](2.69%)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>宝信软件[600845](2.62%)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票C</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010586</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>皮劲松</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>黄瑞庆 林景艺</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>中国平安[601318](6.74%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](3.24%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>中信证券[600030](1.79%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>交通银行[601328](1.67%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>恒瑞医药[600276](1.45%)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>三一重工[600031](1.36%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>万科A[000002](1.27%)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>隆基股份[601012](1.26%)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>海螺水泥[600585](1.23%)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>华夏银行[600015](1.17%)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>创金合信医药消费股票A</t>
+          <t>中银证券中证500ETF联接C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010585</t>
+          <t>008259</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>皮劲松</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>阳桦 张艺敏</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>星宇股份[601799](0.02%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>辽宁成大[600739](0.02%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>璞泰来[603659](0.01%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>金发科技[600143](0.01%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>华鲁恒升[600426](0.01%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>安琪酵母[600298](0.01%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>生物股份[600201](0.01%)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>太平洋[601099](0.01%)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>天坛生物[600161](0.01%)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>人福医药[600079](0.01%)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>招商景气优选股票A</t>
+          <t>中银证券中证500ETF联接A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009864</t>
+          <t>008258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>付斌</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>阳桦 张艺敏</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>星宇股份[601799](0.02%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>辽宁成大[600739](0.02%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>璞泰来[603659](0.01%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>金发科技[600143](0.01%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>华鲁恒升[600426](0.01%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>安琪酵母[600298](0.01%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>生物股份[600201](0.01%)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>太平洋[601099](0.01%)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>天坛生物[600161](0.01%)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>人福医药[600079](0.01%)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>招商景气优选股票C</t>
+          <t>浦银安盛上清所优选短融C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009865</t>
+          <t>007065</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>付斌</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>刘大巍</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -850,20 +1086,24 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>华安年年丰定开债C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>007625</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>孙琳 杨扬</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>朱才敏</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -878,20 +1118,24 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>银华品质消费股票</t>
+          <t>宝盈盈润纯债债券</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009852</t>
+          <t>006242</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>张萍</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>杨献忠</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -906,20 +1150,24 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>富国消费精选30股票</t>
+          <t>永赢开泰中高等级中短债A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010409</t>
+          <t>007542</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>王园园</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>卢绮婷</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -934,17 +1182,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>前海开源外向企业股票</t>
+          <t>华安年年丰定开债A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003492</t>
+          <t>007624</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>石峰</t>
+          <t>朱才敏</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -952,71 +1200,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>思源电气[002028](6.22%)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>浪潮信息[000977](5.84%)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>漫步者[002351](5.77%)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>景旺电子[603228](5.17%)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>广和通[300638](5.07%)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>胜宏科技[300476](4.58%)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>长阳科技[688299](4.41%)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>梦百合[603313](4.28%)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>汉钟精机[002158](4.04%)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>海顺新材[300501](3.85%)</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>中银互联网+股票</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001663</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>欧阳力君</t>
+          <t>施荣盛</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1026,69 +1234,69 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>恒生电子[600570](6.71%)</t>
+          <t>鱼跃医疗[002223](1.17%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>吉比特[603444](5.41%)</t>
+          <t>山东章鼓[002598](1.12%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](5.15%)</t>
+          <t>同济科技[600846](1.1%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>京东方A[000725](5.14%)</t>
+          <t>森霸传感[300701](1.05%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>立讯精密[002475](4.75%)</t>
+          <t>丰山集团[603810](1.04%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>深信服[300454](4.61%)</t>
+          <t>再升科技[603601](1.04%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>天下秀[600556](4.37%)</t>
+          <t>广弘控股[000529](1.04%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>北方华创[002371](4.34%)</t>
+          <t>理邦仪器[300206](1%)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>完美世界[002624](4.21%)</t>
+          <t>集泰股份[002909](0.97%)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>奇安信[688561](4.06%)</t>
+          <t>牧高笛[603908](0.96%)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>前海开源3-5年国开债C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>007764</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>李湘杰 黄芳</t>
+          <t>李炳智</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1096,71 +1304,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>颐海国际[01579](6.68%)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>雅迪控股[01585](6.16%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>美团-W[03690](5.69%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>药明生物[02269](5.66%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>海底捞[06862](5.47%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>碧桂园服务[06098](5.37%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>信义光能[00968](5.17%)</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>美东汽车[01268](4.98%)</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>福莱特玻璃[06865](4.62%)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>腾讯控股[00700](4.35%)</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>宝盈医疗健康沪港深股票</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001915</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>郝淼</t>
+          <t>施荣盛</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1170,69 +1338,69 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>安图生物[603658](8.05%)</t>
+          <t>鱼跃医疗[002223](1.17%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>长春高新[000661](7.57%)</t>
+          <t>山东章鼓[002598](1.12%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>大参林[603233](7.56%)</t>
+          <t>同济科技[600846](1.1%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>泰格医药[300347](7.29%)</t>
+          <t>森霸传感[300701](1.05%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>健帆生物[300529](6.88%)</t>
+          <t>丰山集团[603810](1.04%)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>泽璟制药[688266](6.39%)</t>
+          <t>再升科技[603601](1.04%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>凯莱英[002821](5.84%)</t>
+          <t>广弘控股[000529](1.04%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](5.65%)</t>
+          <t>理邦仪器[300206](1%)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.05%)</t>
+          <t>集泰股份[002909](0.97%)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>华兰生物[002007](4.67%)</t>
+          <t>牧高笛[603908](0.96%)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>创金合信医疗保健股票C</t>
+          <t>工银尊享短债债券F</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>007717</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>皮劲松</t>
+          <t>王朔</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1240,71 +1408,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>康泰生物[300601](7.9%)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>华兰生物[002007](7.07%)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>昭衍新药[603127](7.06%)</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>凯莱英[002821](6.79%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>艾德生物[300685](6.22%)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>益丰药房[603939](6.01%)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>欧普康视[300595](5.82%)</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>大参林[603233](5.57%)</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>迈瑞医疗[300760](5.55%)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>大博医疗[002901](5.04%)</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>申万菱信行业轮动股票</t>
+          <t>南方贺元利率债C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005009</t>
+          <t>007715</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>林博程</t>
+          <t>金凌志</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1312,71 +1440,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>通威股份[600438](7.97%)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>宁德时代[300750](7.64%)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>亿纬锂能[300014](7.34%)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>歌尔股份[002241](6.36%)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>三花智控[002050](6.08%)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>隆基股份[601012](5.88%)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>中信证券[600030](5.87%)</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](5.84%)</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>锦浪科技[300763](5.26%)</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>中国中免[601888](4.65%)</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>创金合信医疗保健股票A</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>皮劲松</t>
+          <t>肖觅</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1386,69 +1474,69 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>康泰生物[300601](7.9%)</t>
+          <t>美团-W[03690](9.31%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>华兰生物[002007](7.07%)</t>
+          <t>吉祥航空[603885](9.2%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>昭衍新药[603127](7.06%)</t>
+          <t>腾讯控股[00700](8.86%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>凯莱英[002821](6.79%)</t>
+          <t>韵达股份[002120](7.99%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>艾德生物[300685](6.22%)</t>
+          <t>春秋航空[601021](6.49%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>益丰药房[603939](6.01%)</t>
+          <t>中国燃气[00384](5.42%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>欧普康视[300595](5.82%)</t>
+          <t>国投电力[600886](4.17%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>大参林[603233](5.57%)</t>
+          <t>新奥股份[600803](4.15%)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](5.55%)</t>
+          <t>隆平高科[000998](3.69%)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>大博医疗[002901](5.04%)</t>
+          <t>中国东方航空股份[00670](3.64%)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>南方贺元利率债A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>007714</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>雷俊</t>
+          <t>金凌志</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1456,71 +1544,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>永安行[603776](3.77%)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>天赐材料[002709](3.74%)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>建设机械[600984](3.73%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>中油工程[600339](3.55%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>利尔化学[002258](3.4%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>太平鸟[603877](3.1%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>裕同科技[002831](3.04%)</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>丽珠集团[000513](2.8%)</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>中牧股份[600195](2.69%)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>宝信软件[600845](2.62%)</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>华夏优势精选股票</t>
+          <t>交银施罗德趋势优先混合</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005894</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>李湘杰</t>
+          <t>杨金金</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1530,69 +1578,69 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>立讯精密[002475](6.43%)</t>
+          <t>焦点科技[002315](8.84%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>中国中免[601888](5.57%)</t>
+          <t>海尔智家[600690](6.81%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>美团-W[03690](5.44%)</t>
+          <t>宝钢包装[601968](6.5%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>五粮液[000858](4.89%)</t>
+          <t>电科院[300215](6.27%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>泸州老窖[000568](4.77%)</t>
+          <t>惠发食品[603536](5.75%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>宁德时代[300750](4.49%)</t>
+          <t>汉王科技[002362](5.27%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](4.4%)</t>
+          <t>中亚股份[300512](4.64%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>通策医疗[600763](3.44%)</t>
+          <t>一拖股份[601038](3.95%)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>海底捞[06862](3.17%)</t>
+          <t>紫光国微[002049](3.14%)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>信义光能[00968](2.87%)</t>
+          <t>贵州轮胎[000589](2.93%)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>宝盈人工智能股票C</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005963</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>张仲维</t>
+          <t>肖觅</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1602,69 +1650,69 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](8.18%)</t>
+          <t>美团-W[03690](9.31%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>立讯精密[002475](7.67%)</t>
+          <t>吉祥航空[603885](9.2%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>宁德时代[300750](6.56%)</t>
+          <t>腾讯控股[00700](8.86%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>金山办公[688111](6.49%)</t>
+          <t>韵达股份[002120](7.99%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](6.34%)</t>
+          <t>春秋航空[601021](6.49%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>闻泰科技[600745](5.28%)</t>
+          <t>中国燃气[00384](5.42%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>拓普集团[601689](4.68%)</t>
+          <t>国投电力[600886](4.17%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>壹网壹创[300792](4.59%)</t>
+          <t>新奥股份[600803](4.15%)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>恩捷股份[002812](4.5%)</t>
+          <t>隆平高科[000998](3.69%)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>北方华创[002371](4.2%)</t>
+          <t>中国东方航空股份[00670](3.64%)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>宝盈人工智能股票A</t>
+          <t>前海开源再融资股票</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005962</t>
+          <t>001178</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>张仲维</t>
+          <t>邱杰</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1674,69 +1722,69 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](8.18%)</t>
+          <t>吉比特[603444](9.88%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>立讯精密[002475](7.67%)</t>
+          <t>格力电器[000651](9.19%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>宁德时代[300750](6.56%)</t>
+          <t>汤臣倍健[300146](7.12%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>金山办公[688111](6.49%)</t>
+          <t>掌趣科技[300315](5.61%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](6.34%)</t>
+          <t>金地集团[600383](5.14%)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>闻泰科技[600745](5.28%)</t>
+          <t>京东方A[000725](5.05%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>拓普集团[601689](4.68%)</t>
+          <t>TCL科技[000100](4.94%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>壹网壹创[300792](4.59%)</t>
+          <t>永辉超市[601933](4.15%)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>恩捷股份[002812](4.5%)</t>
+          <t>招商银行[600036](3.75%)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>北方华创[002371](4.2%)</t>
+          <t>金科股份[000656](3.68%)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>鹏华中证500指数(LOF)C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>张林</t>
+          <t>张羽翔</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1746,69 +1794,69 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>立讯精密[002475](9.86%)</t>
+          <t>沪硅产业[688126](1.39%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](8.63%)</t>
+          <t>凯莱英[002821](0.68%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>雅克科技[002409](6.61%)</t>
+          <t>辽宁成大[600739](0.63%)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>吉比特[603444](5.26%)</t>
+          <t>卫宁健康[300253](0.61%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>京东方A[000725](5.2%)</t>
+          <t>华测检测[300012](0.6%)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>分众传媒[002027](4.81%)</t>
+          <t>生物股份[600201](0.56%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>亿纬锂能[300014](4.54%)</t>
+          <t>安琪酵母[600298](0.55%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>广联达[002410](3.89%)</t>
+          <t>欣旺达[300207](0.54%)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>芯源微[688037](3.88%)</t>
+          <t>人福医药[600079](0.54%)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>北方华创[002371](3.88%)</t>
+          <t>南极电商[002127](0.53%)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>华夏科技成长股票</t>
+          <t>南方安福混合C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006868</t>
+          <t>007569</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>张帆</t>
+          <t>吴剑毅</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1818,69 +1866,69 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>七一二[603712](6.58%)</t>
+          <t>兴业银行[601166](1.44%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>立讯精密[002475](6.03%)</t>
+          <t>平安银行[000001](0.92%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>新宝股份[002705](5.59%)</t>
+          <t>贵州茅台[600519](0.86%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>中航高科[600862](5.23%)</t>
+          <t>美的集团[000333](0.84%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>三花智控[002050](4.59%)</t>
+          <t>万科A[000002](0.84%)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>金蝶国际[00268](4.42%)</t>
+          <t>中国平安[601318](0.82%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](4.09%)</t>
+          <t>中国建筑[601668](0.67%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>广联达[002410](3.76%)</t>
+          <t>伊利股份[600887](0.67%)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](3.61%)</t>
+          <t>保利地产[600048](0.66%)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>宁德时代[300750](3.58%)</t>
+          <t>格力电器[000651](0.66%)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>鹏华价值精选股票</t>
+          <t>招商瑞文混合C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>206012</t>
+          <t>007726</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>胡东健 张航</t>
+          <t>余芽芳 王垠</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1890,69 +1938,69 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>亚士创能[603378](9.26%)</t>
+          <t>新洋丰[000902](1.13%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>科顺股份[300737](8.76%)</t>
+          <t>国光股份[002749](1.12%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>良信股份[002706](7.88%)</t>
+          <t>兴业银行[601166](1.05%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](7.03%)</t>
+          <t>新疆交建[002941](0.6%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>立讯精密[002475](5.7%)</t>
+          <t>浙江美大[002677](0.56%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>三棵树[603737](4.62%)</t>
+          <t>青松建化[600425](0.53%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>宁德时代[300750](3.95%)</t>
+          <t>华荣股份[603855](0.46%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>隆基股份[601012](3.4%)</t>
+          <t>一汽富维[600742](0.44%)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>阳光电源[300274](3.1%)</t>
+          <t>博实股份[002698](0.42%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>贝达药业[300558](2.99%)</t>
+          <t>羚锐制药[600285](0.39%)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>广发沪港深新机遇股票</t>
+          <t>德邦量化优选股票(LOF)C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001764</t>
+          <t>167703</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>余昊</t>
+          <t>王本昌</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1962,69 +2010,69 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>福莱特玻璃[06865](11.88%)</t>
+          <t>贵州茅台[600519](3.25%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](7.81%)</t>
+          <t>中国平安[601318](2.73%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>碧桂园服务[06098](6.4%)</t>
+          <t>智飞生物[300122](2.07%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>颐海国际[01579](3.89%)</t>
+          <t>双汇发展[000895](2.05%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>金蝶国际[00268](3.48%)</t>
+          <t>东方财富[300059](1.64%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>美团-W[03690](3.31%)</t>
+          <t>五粮液[000858](1.53%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>信义玻璃[00868](3.18%)</t>
+          <t>同花顺[300033](1.47%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>金山软件[03888](3.15%)</t>
+          <t>中国人寿[601628](1.45%)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>维亚生物[01873](3.14%)</t>
+          <t>恒瑞医药[600276](1.45%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>思摩尔国际[06969](3.06%)</t>
+          <t>光明乳业[600597](1.35%)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>交银施罗德蓝筹混合</t>
+          <t>招商瑞文混合A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>007725</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>王少成</t>
+          <t>余芽芳 王垠</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2034,69 +2082,69 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>三全食品[002216](9.87%)</t>
+          <t>新洋丰[000902](1.13%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>绝味食品[603517](9.6%)</t>
+          <t>国光股份[002749](1.12%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>健友股份[603707](8.5%)</t>
+          <t>兴业银行[601166](1.05%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>中公教育[002607](8.48%)</t>
+          <t>新疆交建[002941](0.6%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>科大讯飞[002230](8.13%)</t>
+          <t>浙江美大[002677](0.56%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>紫光国微[002049](8.03%)</t>
+          <t>青松建化[600425](0.53%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>隆平高科[000998](5.8%)</t>
+          <t>华荣股份[603855](0.46%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>海大集团[002311](4.57%)</t>
+          <t>一汽富维[600742](0.44%)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>柏楚电子[688188](4.28%)</t>
+          <t>博实股份[002698](0.42%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>桃李面包[603866](4.27%)</t>
+          <t>羚锐制药[600285](0.39%)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>德邦量化优选股票(LOF)A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>167702</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赵强</t>
+          <t>王本昌</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2106,69 +2154,69 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>凯普生物[300639](8.08%)</t>
+          <t>贵州茅台[600519](3.25%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>浙江鼎力[603338](6.92%)</t>
+          <t>中国平安[601318](2.73%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>海尔生物[688139](5.94%)</t>
+          <t>智飞生物[300122](2.07%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>恒立液压[601100](4.86%)</t>
+          <t>双汇发展[000895](2.05%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>金科股份[000656](3.94%)</t>
+          <t>东方财富[300059](1.64%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>美的集团[000333](3.21%)</t>
+          <t>五粮液[000858](1.53%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>理邦仪器[300206](3.09%)</t>
+          <t>同花顺[300033](1.47%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>大博医疗[002901](2.97%)</t>
+          <t>中国人寿[601628](1.45%)</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>国瓷材料[300285](2.87%)</t>
+          <t>恒瑞医药[600276](1.45%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>凯利泰[300326](2.82%)</t>
+          <t>光明乳业[600597](1.35%)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>广发科技动力股票</t>
+          <t>工银尊益中短债A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005777</t>
+          <t>009655</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>李耀柱</t>
+          <t>谷衡</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2176,71 +2224,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>美团-W[03690](8.64%)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>腾讯控股[00700](8.35%)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>三环集团[300408](7%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>京东方A[000725](6.91%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>紫光国微[002049](4.69%)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>数据港[603881](3.75%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>小米集团-W[01810](3.63%)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>中国海防[600764](3.54%)</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>TCL科技[000100](3.46%)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>西部超导[688122](3.42%)</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>浙商中华预期高股息指数增强C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>颜媛</t>
+          <t>查晓磊 贾腾</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2250,69 +2258,69 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>通策医疗[600763](6.47%)</t>
+          <t>富力地产[02777](4.28%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>智飞生物[300122](6.41%)</t>
+          <t>兖州煤业股份[01171](4.16%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](5.84%)</t>
+          <t>雅居乐集团[03383](3.33%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>九洲药业[603456](5.33%)</t>
+          <t>互太纺织[01382](3.28%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>威高股份[01066](4.64%)</t>
+          <t>信义玻璃[00868](2.86%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>老百姓[603883](4.55%)</t>
+          <t>禹洲集团[01628](2.66%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>中国生物制药[01177](4.21%)</t>
+          <t>长城汽车[02333](2.53%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>金域医学[603882](3.86%)</t>
+          <t>宝龙地产[01238](2.53%)</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>信邦制药[002390](3.75%)</t>
+          <t>中升控股[00881](2.49%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.61%)</t>
+          <t>华能国际电力股份[00902](2.37%)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>浙商中华预期高股息指数增强A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>陈良栋</t>
+          <t>查晓磊 贾腾</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2322,69 +2330,69 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>中材科技[002080](9.28%)</t>
+          <t>富力地产[02777](4.28%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>联得装备[300545](9.06%)</t>
+          <t>兖州煤业股份[01171](4.16%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>伯特利[603596](8.65%)</t>
+          <t>雅居乐集团[03383](3.33%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>建设机械[600984](6.71%)</t>
+          <t>互太纺织[01382](3.28%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>鸿路钢构[002541](6.46%)</t>
+          <t>信义玻璃[00868](2.86%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>亚厦股份[002375](4.34%)</t>
+          <t>禹洲集团[01628](2.66%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>华测导航[300627](3.94%)</t>
+          <t>长城汽车[02333](2.53%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>坚朗五金[002791](3.85%)</t>
+          <t>宝龙地产[01238](2.53%)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>安车检测[300572](3.53%)</t>
+          <t>中升控股[00881](2.49%)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>江山欧派[603208](2.67%)</t>
+          <t>华能国际电力股份[00902](2.37%)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>华富华鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>002730</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>颜媛</t>
+          <t>尹培俊</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2394,69 +2402,69 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>通策医疗[600763](6.47%)</t>
+          <t>辽宁成大[600739](1.01%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>智飞生物[300122](6.41%)</t>
+          <t>生物股份[600201](0.86%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](5.84%)</t>
+          <t>人福医药[600079](0.86%)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>九洲药业[603456](5.33%)</t>
+          <t>安琪酵母[600298](0.85%)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>威高股份[01066](4.64%)</t>
+          <t>金发科技[600143](0.8%)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>老百姓[603883](4.55%)</t>
+          <t>华鲁恒升[600426](0.79%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>中国生物制药[01177](4.21%)</t>
+          <t>太平洋[601099](0.78%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>金域医学[603882](3.86%)</t>
+          <t>吉比特[603444](0.76%)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>信邦制药[002390](3.75%)</t>
+          <t>绝味食品[603517](0.71%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.61%)</t>
+          <t>重庆啤酒[600132](0.71%)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>中银智能制造股票</t>
+          <t>前海开源3-5年国开债A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001476</t>
+          <t>007763</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>王伟</t>
+          <t>李炳智</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2464,71 +2472,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>隆基股份[601012](9.45%)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>通威股份[600438](9.16%)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>锦浪科技[300763](8.73%)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>亿纬锂能[300014](8.09%)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>歌尔股份[002241](5.33%)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](5.32%)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>宁德时代[300750](5.09%)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>拓普集团[601689](5.08%)</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>福莱特[601865](4.1%)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>三一重工[600031](3.99%)</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>太平MSCI香港价值增强C</t>
+          <t>南方上证380ETF联接C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>007571</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>林开盛</t>
+          <t>孙伟</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2538,69 +2506,69 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>中国电信[00728](15.15%)</t>
+          <t>金域医学[603882](0.01%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>建设银行[00939](12.33%)</t>
+          <t>益丰药房[603939](0.01%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>中国银行[03988](5.85%)</t>
+          <t>华鲁恒升[600426](0.01%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>中国联通[00762](5.25%)</t>
+          <t>重庆啤酒[600132](0.01%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>农业银行[01288](4.25%)</t>
+          <t>泛微网络[603039](0%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>长城汽车[02333](2.91%)</t>
+          <t>晨光文具[603899](0%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>万洲国际[00288](2.71%)</t>
+          <t>福斯特[603806](0%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>龙湖集团[00960](2.61%)</t>
+          <t>金发科技[600143](0%)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>兖州煤业股份[01171](2.57%)</t>
+          <t>辽宁成大[600739](0%)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>建滔集团[00148](2.31%)</t>
+          <t>人福医药[600079](0%)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>太平MSCI香港价值增强A</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>林开盛</t>
+          <t>黎海威</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2610,69 +2578,69 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>中国电信[00728](15.15%)</t>
+          <t>腾讯控股[00700](9.88%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>建设银行[00939](12.33%)</t>
+          <t>美团-W[03690](4.59%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>中国银行[03988](5.85%)</t>
+          <t>建设银行[00939](3.49%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>中国联通[00762](5.25%)</t>
+          <t>友邦保险[01299](3.06%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>农业银行[01288](4.25%)</t>
+          <t>中国银行[03988](2.63%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>长城汽车[02333](2.91%)</t>
+          <t>中国移动[00941](2.16%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>万洲国际[00288](2.71%)</t>
+          <t>中国神华[01088](2.01%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>龙湖集团[00960](2.61%)</t>
+          <t>联想集团[00992](1.87%)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>兖州煤业股份[01171](2.57%)</t>
+          <t>恒安国际[01044](1.8%)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>建滔集团[00148](2.31%)</t>
+          <t>中国人民保险集团[01339](1.78%)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>兴业绿色纯债一年定开债券A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>009237</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>乔春</t>
+          <t>冯小波</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2680,71 +2648,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>杭州银行[600926](3.09%)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>万科A[000002](2.94%)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>宁沪高速[600377](2.77%)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>新华保险[601336](2.65%)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>陕西煤业[601225](2.53%)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>国投电力[600886](2.45%)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>宁德时代[300750](2.3%)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](2.28%)</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>隆基股份[601012](2.26%)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>东方雨虹[002271](2.09%)</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汇添富沪港深新价值股票</t>
+          <t>嘉实物流产业股票C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001685</t>
+          <t>003299</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>杨威风</t>
+          <t>肖觅</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2754,69 +2682,69 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>药明生物[02269](9.58%)</t>
+          <t>韵达股份[002120](8%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>药明康德[02359](8.18%)</t>
+          <t>春秋航空[601021](6.18%)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>美团-W[03690](7.1%)</t>
+          <t>星宇股份[601799](5.17%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>颐海国际[01579](5.95%)</t>
+          <t>吉祥航空[603885](5.09%)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](4.91%)</t>
+          <t>建发股份[600153](4.25%)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](4.89%)</t>
+          <t>新泉股份[603179](4.03%)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>恒生电子[600570](4.78%)</t>
+          <t>广汽集团[601238](4.01%)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>香港交易所[00388](4.71%)</t>
+          <t>长城汽车[601633](4%)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](4.12%)</t>
+          <t>东方航空[600115](3.59%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](3.87%)</t>
+          <t>上海机场[600009](3.35%)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>郭睿</t>
+          <t>肖觅</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2826,69 +2754,69 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>新宝股份[002705](9.89%)</t>
+          <t>韵达股份[002120](8%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>家家悦[603708](9.71%)</t>
+          <t>春秋航空[601021](6.18%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>中国中免[601888](9.08%)</t>
+          <t>星宇股份[601799](5.17%)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>口子窖[603589](8.83%)</t>
+          <t>吉祥航空[603885](5.09%)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>新希望[000876](6.63%)</t>
+          <t>建发股份[600153](4.25%)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安井食品[603345](6.27%)</t>
+          <t>新泉股份[603179](4.03%)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>海信视像[600060](5.96%)</t>
+          <t>广汽集团[601238](4.01%)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>太阳纸业[002078](5.93%)</t>
+          <t>长城汽车[601633](4%)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>牧原股份[002714](5.26%)</t>
+          <t>东方航空[600115](3.59%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](5.16%)</t>
+          <t>上海机场[600009](3.35%)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>招商稳健优选股票</t>
+          <t>天弘文化新兴产业股票</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>004784</t>
+          <t>164205</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>钟贇</t>
+          <t>田俊维</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2898,69 +2826,69 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>智飞生物[300122](9.22%)</t>
+          <t>美的集团[000333](8.28%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>分众传媒[002027](7.4%)</t>
+          <t>顾家家居[603816](8.17%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>立讯精密[002475](7.03%)</t>
+          <t>海尔智家[600690](8.09%)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>恩捷股份[002812](6.76%)</t>
+          <t>格力电器[000651](8.04%)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](5.74%)</t>
+          <t>志邦家居[603801](7.98%)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>宁德时代[300750](5.73%)</t>
+          <t>安车检测[300572](7.03%)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>璞泰来[603659](5.54%)</t>
+          <t>永新股份[002014](5.4%)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.37%)</t>
+          <t>金牌厨柜[603180](5.22%)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>华海药业[600521](4.52%)</t>
+          <t>苏垦农发[601952](5.16%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>普洛药业[000739](2.99%)</t>
+          <t>大亚圣象[000910](5.06%)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>彭炜</t>
+          <t>郭睿</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2970,69 +2898,69 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>立讯精密[002475](5.6%)</t>
+          <t>家家悦[603708](9.8%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](4.97%)</t>
+          <t>新宝股份[002705](9.77%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>福莱特[601865](3.8%)</t>
+          <t>口子窖[603589](8.92%)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>隆基股份[601012](3.71%)</t>
+          <t>中国中免[601888](7.28%)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>银轮股份[002126](3.46%)</t>
+          <t>新希望[000876](6.72%)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>睿智医药[300149](3.33%)</t>
+          <t>太阳纸业[002078](6.08%)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>斯达半导[603290](3.17%)</t>
+          <t>安井食品[603345](5.97%)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>长春高新[000661](3.11%)</t>
+          <t>海信视像[600060](4.8%)</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>拓普集团[601689](3.08%)</t>
+          <t>芒果超媒[300413](4.41%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>完美世界[002624](3.05%)</t>
+          <t>顺丰控股[002352](4.29%)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>银华信息科技量化优选股票C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>005036</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>郭睿</t>
+          <t>马君 李宜璇</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3042,69 +2970,69 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>新宝股份[002705](9.89%)</t>
+          <t>东方财富[300059](4.14%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>家家悦[603708](9.71%)</t>
+          <t>立讯精密[002475](4.04%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>中国中免[601888](9.08%)</t>
+          <t>京东方A[000725](3.39%)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>口子窖[603589](8.83%)</t>
+          <t>中国平安[601318](3.06%)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>新希望[000876](6.63%)</t>
+          <t>恒生电子[600570](2.97%)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安井食品[603345](6.27%)</t>
+          <t>广联达[002410](2.53%)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>海信视像[600060](5.96%)</t>
+          <t>信维通信[300136](2.25%)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>太阳纸业[002078](5.93%)</t>
+          <t>中国联通[600050](2.09%)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>牧原股份[002714](5.26%)</t>
+          <t>海康威视[002415](1.58%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](5.16%)</t>
+          <t>用友网络[600588](1.42%)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>陈启明</t>
+          <t>郭睿</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3114,69 +3042,69 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>博腾股份[300363](8.63%)</t>
+          <t>家家悦[603708](9.8%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](8.02%)</t>
+          <t>新宝股份[002705](9.77%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>石基信息[002153](6.43%)</t>
+          <t>口子窖[603589](8.92%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>兆易创新[603986](6.37%)</t>
+          <t>中国中免[601888](7.28%)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>紫金矿业[601899](5.94%)</t>
+          <t>新希望[000876](6.72%)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>山东黄金[600547](4.73%)</t>
+          <t>太阳纸业[002078](6.08%)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>中国人寿[601628](4.09%)</t>
+          <t>安井食品[603345](5.97%)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>当升科技[300073](3.25%)</t>
+          <t>海信视像[600060](4.8%)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>大华股份[002236](3.15%)</t>
+          <t>芒果超媒[300413](4.41%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>益丰药房[603939](2.84%)</t>
+          <t>顺丰控股[002352](4.29%)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>南方国策动力股票</t>
+          <t>银华信息科技量化优选股票A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001692</t>
+          <t>005035</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>罗安安</t>
+          <t>马君 李宜璇</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3186,69 +3114,69 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>立讯精密[002475](7.92%)</t>
+          <t>东方财富[300059](4.14%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](6.63%)</t>
+          <t>立讯精密[002475](4.04%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>隆基股份[601012](6.61%)</t>
+          <t>京东方A[000725](3.39%)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](5.65%)</t>
+          <t>中国平安[601318](3.06%)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>爱乐达[300696](5.27%)</t>
+          <t>恒生电子[600570](2.97%)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>宁波银行[002142](5.23%)</t>
+          <t>广联达[002410](2.53%)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>金山办公[688111](5.1%)</t>
+          <t>信维通信[300136](2.25%)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](4.53%)</t>
+          <t>中国联通[600050](2.09%)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](4.44%)</t>
+          <t>海康威视[002415](1.58%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>佳发教育[300559](4.01%)</t>
+          <t>用友网络[600588](1.42%)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>富国互联科技股票</t>
+          <t>工银战略转型股票</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006751</t>
+          <t>000991</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>许炎</t>
+          <t>杜洋</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3258,69 +3186,69 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>立讯精密[002475](8.96%)</t>
+          <t>阳光电源[300274](6.81%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>美团-W[03690](5.36%)</t>
+          <t>林洋能源[601222](4.73%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>宁德时代[300750](5.13%)</t>
+          <t>坚朗五金[002791](3.74%)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](5.12%)</t>
+          <t>青松股份[300132](2.58%)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>宝信软件[600845](4.96%)</t>
+          <t>慈文传媒[002343](2.57%)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>亿联网络[300628](4.89%)</t>
+          <t>火炬电子[603678](2.45%)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](4.21%)</t>
+          <t>分众传媒[002027](2.34%)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>金山办公[688111](4.04%)</t>
+          <t>金山办公[688111](2.33%)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>韦尔股份[603501](3.89%)</t>
+          <t>泰和新材[002254](2.33%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](3.16%)</t>
+          <t>晶澳科技[002459](2.3%)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信医药健康行业股票C</t>
+          <t>九泰久信量化</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>006003</t>
+          <t>009043</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>谭冬寒</t>
+          <t>孟亚强</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3330,69 +3258,69 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](8.4%)</t>
+          <t>安靠智电[300617](0.61%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](6.63%)</t>
+          <t>振德医疗[603301](0.6%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>长春高新[000661](6.09%)</t>
+          <t>英科医疗[300677](0.6%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>健帆生物[300529](6.07%)</t>
+          <t>理邦仪器[300206](0.6%)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.99%)</t>
+          <t>博汇纸业[600966](0.6%)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.54%)</t>
+          <t>中国重汽[000951](0.6%)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>泰格医药[300347](4.14%)</t>
+          <t>司太立[603520](0.59%)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.83%)</t>
+          <t>棒杰股份[002634](0.59%)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>凯莱英[002821](3.45%)</t>
+          <t>昌红科技[300151](0.59%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>康龙化成[300759](3.34%)</t>
+          <t>欣龙控股[000955](0.59%)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信医药健康行业股票A</t>
+          <t>前海开源强势共识100强股票</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>006002</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>谭冬寒</t>
+          <t>谢屹</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3402,69 +3330,69 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](8.4%)</t>
+          <t>世联行[002285](1.42%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](6.63%)</t>
+          <t>泸州老窖[000568](1.33%)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>长春高新[000661](6.09%)</t>
+          <t>隆基股份[601012](1.3%)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>健帆生物[300529](6.07%)</t>
+          <t>五粮液[000858](1.2%)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.99%)</t>
+          <t>欧派家居[603833](1.19%)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.54%)</t>
+          <t>山西汾酒[600809](1.18%)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>泰格医药[300347](4.14%)</t>
+          <t>玲珑轮胎[601966](1.17%)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.83%)</t>
+          <t>比亚迪[002594](1.14%)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>凯莱英[002821](3.45%)</t>
+          <t>浙商证券[601878](1.12%)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>康龙化成[300759](3.34%)</t>
+          <t>索菲亚[002572](1.12%)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>华夏经济转型股票</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002229</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>张帆</t>
+          <t>黎海威</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3474,69 +3402,69 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>七一二[603712](5.23%)</t>
+          <t>重庆百货[600729](1.8%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>新宝股份[002705](5.11%)</t>
+          <t>威孚高科[000581](1.76%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>中航高科[600862](4.82%)</t>
+          <t>华菱钢铁[000932](1.72%)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>立讯精密[002475](4.59%)</t>
+          <t>南京高科[600064](1.55%)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>宁德时代[300750](3.86%)</t>
+          <t>中材科技[002080](1.53%)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>TCL科技[000100](3.73%)</t>
+          <t>中国中冶[601618](1.51%)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>吉比特[603444](3.67%)</t>
+          <t>明阳智能[601615](1.5%)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>三花智控[002050](3.53%)</t>
+          <t>中南传媒[601098](1.46%)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>广联达[002410](3.09%)</t>
+          <t>重庆啤酒[600132](1.42%)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>京东方A[000725](2.94%)</t>
+          <t>金发科技[600143](1.33%)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>富国医药成长30股票</t>
+          <t>泰康裕泰债券A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>009162</t>
+          <t>006207</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>孙笑悦</t>
+          <t>任翀 陈怡</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3546,141 +3474,97 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](8.07%)</t>
+          <t>光线传媒[300251](2.29%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](7.92%)</t>
+          <t>中信证券[600030](1.29%)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>智飞生物[300122](6.83%)</t>
+          <t>宁波银行[002142](0.96%)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>凯莱英[002821](5.91%)</t>
+          <t>海容冷链[603187](0.86%)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>华海药业[600521](5.85%)</t>
+          <t>芒果超媒[300413](0.76%)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](5.63%)</t>
+          <t>李宁[02331](0.75%)</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>长春高新[000661](4.57%)</t>
+          <t>平安银行[000001](0.75%)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>心脉医疗[688016](3.93%)</t>
+          <t>星宇股份[601799](0.65%)</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>康龙化成[300759](3.84%)</t>
+          <t>中信特钢[000708](0.56%)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>健帆生物[300529](3.17%)</t>
+          <t>中国太保[601601](0.55%)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合C</t>
+          <t>汇添富恒生指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>007528</t>
+          <t>010789</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蔡志伟 彭炜</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](7.6%)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>歌尔股份[002241](5.53%)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>长春高新[000661](5.49%)</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>恒立液压[601100](5.04%)</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>隆基股份[601012](4.53%)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>药石科技[300725](4.13%)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>宁德时代[300750](4.07%)</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>凯莱英[002821](4.07%)</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>拓普集团[601689](4.06%)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>华新水泥[600801](3.99%)</t>
-        </is>
-      </c>
+          <t>赖中立</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>华商医药医疗行业股票</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>郭睿</t>
+          <t>陈恒</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3690,69 +3574,69 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>家家悦[603708](9.8%)</t>
+          <t>沃森生物[300142](7.78%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>新宝股份[002705](9.77%)</t>
+          <t>恒瑞医药[600276](6.11%)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>口子窖[603589](8.92%)</t>
+          <t>迈瑞医疗[300760](5.92%)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>中国中免[601888](7.28%)</t>
+          <t>智飞生物[300122](4.74%)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>新希望[000876](6.72%)</t>
+          <t>泰格医药[300347](4.55%)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>太阳纸业[002078](6.08%)</t>
+          <t>华海药业[600521](4.36%)</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>安井食品[603345](5.97%)</t>
+          <t>康泰生物[300601](4.33%)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>海信视像[600060](4.8%)</t>
+          <t>药明康德[603259](4.17%)</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](4.41%)</t>
+          <t>华兰生物[002007](3.88%)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>顺丰控股[002352](4.29%)</t>
+          <t>海普瑞[002399](3.86%)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>鹏华沪深港互联网股票</t>
+          <t>交银施罗德蓝筹混合</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004292</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>聂毅翔 王海青</t>
+          <t>王少成</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3762,69 +3646,69 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>美团-W[03690](9.15%)</t>
+          <t>三全食品[002216](9.87%)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](9.02%)</t>
+          <t>绝味食品[603517](9.6%)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>小米集团-W[01810](7.94%)</t>
+          <t>健友股份[603707](8.5%)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>东方财富[300059](6.73%)</t>
+          <t>中公教育[002607](8.48%)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>立讯精密[002475](3.62%)</t>
+          <t>科大讯飞[002230](8.13%)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>恒生电子[600570](3.37%)</t>
+          <t>紫光国微[002049](8.03%)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>通威股份[600438](2.96%)</t>
+          <t>隆平高科[000998](5.8%)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>广联达[002410](2.7%)</t>
+          <t>海大集团[002311](4.57%)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>阿里健康[00241](2.68%)</t>
+          <t>柏楚电子[688188](4.28%)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>用友网络[600588](2.43%)</t>
+          <t>桃李面包[603866](4.27%)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>融通量化多策略灵活配置混合A</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>007527</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蔡志伟 彭炜</t>
+          <t>董梁</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3834,69 +3718,69 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>立讯精密[002475](7.6%)</t>
+          <t>坚朗五金[002791](0.99%)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](5.53%)</t>
+          <t>迈克生物[300463](0.99%)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>长春高新[000661](5.49%)</t>
+          <t>光威复材[300699](0.91%)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>恒立液压[601100](5.04%)</t>
+          <t>精测电子[300567](0.82%)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>隆基股份[601012](4.53%)</t>
+          <t>新易盛[300502](0.82%)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>药石科技[300725](4.13%)</t>
+          <t>天孚通信[300394](0.8%)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>宁德时代[300750](4.07%)</t>
+          <t>药石科技[300725](0.79%)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>凯莱英[002821](4.07%)</t>
+          <t>拓斯达[300607](0.79%)</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>拓普集团[601689](4.06%)</t>
+          <t>兴齐眼药[300573](0.79%)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>华新水泥[600801](3.99%)</t>
+          <t>华大基因[300676](0.78%)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>太平MSCI香港价值增强C</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>郭睿</t>
+          <t>林开盛</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3906,69 +3790,69 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>家家悦[603708](9.8%)</t>
+          <t>中国电信[00728](15.15%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>新宝股份[002705](9.77%)</t>
+          <t>建设银行[00939](12.33%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>口子窖[603589](8.92%)</t>
+          <t>中国银行[03988](5.85%)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>中国中免[601888](7.28%)</t>
+          <t>中国联通[00762](5.25%)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>新希望[000876](6.72%)</t>
+          <t>农业银行[01288](4.25%)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>太阳纸业[002078](6.08%)</t>
+          <t>长城汽车[02333](2.91%)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>安井食品[603345](5.97%)</t>
+          <t>万洲国际[00288](2.71%)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>海信视像[600060](4.8%)</t>
+          <t>龙湖集团[00960](2.61%)</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](4.41%)</t>
+          <t>兖州煤业股份[01171](2.57%)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>顺丰控股[002352](4.29%)</t>
+          <t>建滔集团[00148](2.31%)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>光大保德信创业板量化优选股票A</t>
+          <t>太平MSCI香港价值增强A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>003069</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>金昉毅 翟云飞</t>
+          <t>林开盛</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3978,69 +3862,69 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](4%)</t>
+          <t>中国电信[00728](15.15%)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>东方财富[300059](3.71%)</t>
+          <t>建设银行[00939](12.33%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>蓝思科技[300433](3.35%)</t>
+          <t>中国银行[03988](5.85%)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>汇川技术[300124](2.57%)</t>
+          <t>中国联通[00762](5.25%)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>沃森生物[300142](2.35%)</t>
+          <t>农业银行[01288](4.25%)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>宁德时代[300750](2.3%)</t>
+          <t>长城汽车[02333](2.91%)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>圣邦股份[300661](2.22%)</t>
+          <t>万洲国际[00288](2.71%)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>同花顺[300033](2.01%)</t>
+          <t>龙湖集团[00960](2.61%)</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>华大基因[300676](1.96%)</t>
+          <t>兖州煤业股份[01171](2.57%)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>信维通信[300136](1.93%)</t>
+          <t>建滔集团[00148](2.31%)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>李耀柱</t>
+          <t>董梁</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4050,69 +3934,69 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](8.57%)</t>
+          <t>坚朗五金[002791](0.99%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>美团-W[03690](8.48%)</t>
+          <t>迈克生物[300463](0.99%)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>申洲国际[02313](6.59%)</t>
+          <t>光威复材[300699](0.91%)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>爱康医疗[01789](6.33%)</t>
+          <t>精测电子[300567](0.82%)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>友邦保险[01299](5.89%)</t>
+          <t>新易盛[300502](0.82%)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>颐海国际[01579](5.8%)</t>
+          <t>天孚通信[300394](0.8%)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>思摩尔国际[06969](5.38%)</t>
+          <t>药石科技[300725](0.79%)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>小米集团-W[01810](4.78%)</t>
+          <t>拓斯达[300607](0.79%)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>信义光能[00968](4.19%)</t>
+          <t>兴齐眼药[300573](0.79%)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>药明生物[02269](3.86%)</t>
+          <t>华大基因[300676](0.78%)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>鹏华价值优势混合(LOF)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>160607</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>潘明</t>
+          <t>谢书英</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4122,69 +4006,69 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>宝信软件[600845](7.01%)</t>
+          <t>海尔智家[600690](6.35%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](6.11%)</t>
+          <t>长春高新[000661](6.09%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>金山办公[688111](6.09%)</t>
+          <t>宋城演艺[300144](6.03%)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>圣邦股份[300661](6.08%)</t>
+          <t>中南建设[000961](5.97%)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>卓胜微[300782](5.98%)</t>
+          <t>蓝思科技[300433](5.42%)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>宁德时代[300750](5.95%)</t>
+          <t>联化科技[002250](4.7%)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>吉比特[603444](5.95%)</t>
+          <t>玉禾田[300815](4.6%)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>亿纬锂能[300014](5.9%)</t>
+          <t>福斯特[603806](4.55%)</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>恒生电子[600570](5.86%)</t>
+          <t>紫金矿业[601899](4.35%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>广联达[002410](4.91%)</t>
+          <t>博汇纸业[600966](4.09%)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>嘉实互通精选股票</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>006803</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>李耀柱</t>
+          <t>陈叶雁南 冯正彦</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4194,141 +4078,97 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](8.57%)</t>
+          <t>贵州茅台[600519](8.71%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>美团-W[03690](8.48%)</t>
+          <t>腾讯控股[00700](8.44%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>申洲国际[02313](6.59%)</t>
+          <t>中国平安[02318](6.2%)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>爱康医疗[01789](6.33%)</t>
+          <t>智飞生物[300122](6.02%)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>友邦保险[01299](5.89%)</t>
+          <t>融创中国[01918](5.54%)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>颐海国际[01579](5.8%)</t>
+          <t>迈瑞医疗[300760](5.09%)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>思摩尔国际[06969](5.38%)</t>
+          <t>立讯精密[002475](4.16%)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>小米集团-W[01810](4.78%)</t>
+          <t>牧原股份[002714](3.7%)</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>信义光能[00968](4.19%)</t>
+          <t>金科股份[000656](3.45%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>药明生物[02269](3.86%)</t>
+          <t>招商银行[600036](3.12%)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>长信创新驱动股票</t>
+          <t>广发研究精选股票C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>519935</t>
+          <t>010113</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>沈佳</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>广联达[002410](8.17%)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>昂利康[002940](8.15%)</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](7.26%)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>歌尔股份[002241](7.16%)</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>深信服[300454](5.85%)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>汇川技术[300124](4.33%)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>恒生电子[600570](4.29%)</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>东方财富[300059](4.02%)</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>卫宁健康[300253](3.89%)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>用友网络[600588](3.82%)</t>
-        </is>
-      </c>
+          <t>孙迪</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>何以广</t>
+          <t>吴振翔 许一尊</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4338,69 +4178,69 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](3.47%)</t>
+          <t>万孚生物[300482](1.34%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>立讯精密[002475](3.3%)</t>
+          <t>安琪酵母[600298](1.11%)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>隆基股份[601012](3.13%)</t>
+          <t>药石科技[300725](1.08%)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>良信股份[002706](2.96%)</t>
+          <t>金域医学[603882](1.07%)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>汇川技术[300124](2.76%)</t>
+          <t>华大基因[300676](1.03%)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>三角防务[300775](2.75%)</t>
+          <t>国睿科技[600562](1.01%)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>福斯特[603806](2.75%)</t>
+          <t>华发股份[600325](0.98%)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](2.59%)</t>
+          <t>良信股份[002706](0.92%)</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>恒立液压[601100](2.55%)</t>
+          <t>桐昆股份[601233](0.9%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>分众传媒[002027](2.52%)</t>
+          <t>中材科技[002080](0.9%)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>国金量化多策略</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>鲍无可</t>
+          <t>宫雪 马芳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4410,141 +4250,97 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](7.56%)</t>
+          <t>赤峰黄金[600988](0.63%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>信义光能[00968](6.74%)</t>
+          <t>中国中免[601888](0.6%)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>伊利股份[600887](6.39%)</t>
+          <t>航发动力[600893](0.6%)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>中南传媒[601098](6.03%)</t>
+          <t>药明康德[603259](0.59%)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>美团-W[03690](5.94%)</t>
+          <t>闻泰科技[600745](0.58%)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>鹏鼎控股[002938](5.87%)</t>
+          <t>长电科技[600584](0.57%)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>一心堂[002727](5.31%)</t>
+          <t>中国软件[600536](0.57%)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>川投能源[600674](5.26%)</t>
+          <t>浙商证券[601878](0.56%)</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>华润置地[01109](5.05%)</t>
+          <t>恒生电子[600570](0.56%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>凤凰传媒[601928](4.9%)</t>
+          <t>国药股份[600511](0.56%)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>国泰智能装备股票</t>
+          <t>广发研究精选股票A</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>010112</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>隆基股份[601012](8.68%)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>晶澳科技[002459](8.15%)</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>宏发股份[600885](7.29%)</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>杰克股份[603337](6.05%)</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>领益智造[002600](5.99%)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>裕同科技[002831](5.67%)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](5.06%)</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>三花智控[002050](5.04%)</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>恒生电子[600570](5.03%)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>新宙邦[300037](4.88%)</t>
-        </is>
-      </c>
+          <t>孙迪</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>中金衡益C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>007698</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>董梁 王林峰</t>
+          <t>陈诗昆</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4554,69 +4350,69 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>宁德时代[300750](3.74%)</t>
+          <t>隆基股份[601012](0.57%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](3.01%)</t>
+          <t>汇川技术[300124](0.53%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>东方财富[300059](2.47%)</t>
+          <t>新华保险[601336](0.47%)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](2.43%)</t>
+          <t>五粮液[000858](0.46%)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>蓝思科技[300433](2.03%)</t>
+          <t>中国人寿[601628](0.44%)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>汇川技术[300124](1.47%)</t>
+          <t>立讯精密[002475](0.42%)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>智飞生物[300122](1.44%)</t>
+          <t>贵州茅台[600519](0.38%)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>沃森生物[300142](1.09%)</t>
+          <t>分众传媒[002027](0.37%)</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>信维通信[300136](1.08%)</t>
+          <t>山西汾酒[600809](0.36%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>温氏股份[300498](1.07%)</t>
+          <t>歌尔股份[002241](0.35%)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>汇添富新兴消费股票</t>
+          <t>中金衡益A</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>001726</t>
+          <t>007697</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>刘伟林</t>
+          <t>陈诗昆</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4626,141 +4422,129 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>宁德时代[300750](6.93%)</t>
+          <t>隆基股份[601012](0.57%)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>芒果超媒[300413](6.14%)</t>
+          <t>汇川技术[300124](0.53%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>三七互娱[002555](5.8%)</t>
+          <t>新华保险[601336](0.47%)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>完美世界[002624](5.08%)</t>
+          <t>五粮液[000858](0.46%)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.97%)</t>
+          <t>中国人寿[601628](0.44%)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>固德威[688390](4.94%)</t>
+          <t>立讯精密[002475](0.42%)</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>长春高新[000661](4.39%)</t>
+          <t>贵州茅台[600519](0.38%)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>中国中免[601888](4.28%)</t>
+          <t>分众传媒[002027](0.37%)</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>泸州老窖[000568](4.1%)</t>
+          <t>山西汾酒[600809](0.36%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>金山办公[688111](4.05%)</t>
+          <t>歌尔股份[002241](0.35%)</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
+      <c r="A66" s="1" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>方钰涵</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
+          <t>003702</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](8.46%)</t>
+          <t>方大特钢[600507](2.99%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](8.15%)</t>
+          <t>中国神华[601088](2.8%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>凯莱英[002821](8.12%)</t>
+          <t>东睦股份[600114](2.52%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>中公教育[002607](6.3%)</t>
+          <t>三钢闽光[002110](2.17%)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>金域医学[603882](5.64%)</t>
+          <t>塔牌集团[002233](2.1%)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>健友股份[603707](5.1%)</t>
+          <t>永兴材料[002756](2.07%)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](4.73%)</t>
+          <t>三诺生物[300298](2.04%)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.68%)</t>
+          <t>万年青[000789](2.02%)</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>通策医疗[600763](4.53%)</t>
+          <t>金达威[002626](1.98%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>南微医学[688029](3.31%)</t>
+          <t>粤高速A[000429](1.93%)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>广发中证医疗指数(LOF)C</t>
+          <t>华安稳健养老目标一年持有期混合(FOF)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>009881</t>
+          <t>007643</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>罗国庆</t>
+          <t>何移直 杨志远</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4768,71 +4552,31 @@
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>迈瑞医疗[300760](9.98%)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>药明康德[603259](9.93%)</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>爱尔眼科[300015](9.79%)</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>泰格医药[300347](5.09%)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>乐普医疗[300003](3.97%)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>通策医疗[600763](3.93%)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>美年健康[002044](3.76%)</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>卫宁健康[300253](3.21%)</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>健帆生物[300529](2.72%)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>金域医学[603882](2.25%)</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>董梁 王林峰</t>
+          <t>黎海威</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4842,69 +4586,69 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>宁德时代[300750](3.74%)</t>
+          <t>东方电缆[603606](2.14%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](3.01%)</t>
+          <t>意华股份[002897](2.09%)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>东方财富[300059](2.47%)</t>
+          <t>一汽富维[600742](2.09%)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](2.43%)</t>
+          <t>元隆雅图[002878](2.04%)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>蓝思科技[300433](2.03%)</t>
+          <t>南京高科[600064](1.82%)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>汇川技术[300124](1.47%)</t>
+          <t>林洋能源[601222](1.71%)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>智飞生物[300122](1.44%)</t>
+          <t>拓斯达[300607](1.61%)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>沃森生物[300142](1.09%)</t>
+          <t>万兴科技[300624](1.6%)</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>信维通信[300136](1.08%)</t>
+          <t>明阳智能[601615](1.56%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>温氏股份[300498](1.07%)</t>
+          <t>重庆百货[600729](1.48%)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>樊勇</t>
+          <t>金梓才</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4914,69 +4658,69 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>宁德时代[300750](8.69%)</t>
+          <t>鹏鼎控股[002938](10.71%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>新宙邦[300037](6.82%)</t>
+          <t>新易盛[300502](8.65%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>欣旺达[300207](6.24%)</t>
+          <t>三花智控[002050](8.39%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>银轮股份[002126](6.12%)</t>
+          <t>蓝思科技[300433](8.05%)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>科达利[002850](5.59%)</t>
+          <t>东山精密[002384](7.36%)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>当升科技[300073](5.42%)</t>
+          <t>天孚通信[300394](7.19%)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>中科电气[300035](5.19%)</t>
+          <t>九洲药业[603456](6.58%)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>璞泰来[603659](3.7%)</t>
+          <t>司太立[603520](6.51%)</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>科博达[603786](2.87%)</t>
+          <t>博腾股份[300363](4.2%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>拓普集团[601689](2.66%)</t>
+          <t>华正新材[603186](4.08%)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>樊勇</t>
+          <t>张琦 张标</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4986,97 +4730,141 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>宁德时代[300750](8.69%)</t>
+          <t>信维通信[300136](5.73%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>新宙邦[300037](6.82%)</t>
+          <t>良信股份[002706](4.98%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>欣旺达[300207](6.24%)</t>
+          <t>晶盛机电[300316](4.51%)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>银轮股份[002126](6.12%)</t>
+          <t>欣旺达[300207](4.38%)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>科达利[002850](5.59%)</t>
+          <t>玲珑轮胎[601966](3.54%)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>当升科技[300073](5.42%)</t>
+          <t>三环集团[300408](3.5%)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>中科电气[300035](5.19%)</t>
+          <t>麦格米特[002851](3.43%)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>璞泰来[603659](3.7%)</t>
+          <t>明阳智能[601615](3.42%)</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>科博达[603786](2.87%)</t>
+          <t>宏发股份[600885](3.33%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>拓普集团[601689](2.66%)</t>
+          <t>卫星石化[002648](3.28%)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>宝盈创新驱动股票C</t>
+          <t>华泰柏瑞量化增强混合A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>009492</t>
+          <t>000172</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>张仲维</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+          <t>田汉卿</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](2.87%)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>中国平安[601318](2.85%)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>贵阳银行[601997](1.93%)</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>中国太保[601601](1.74%)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>迈瑞医疗[300760](1.64%)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>中国中铁[601390](1.55%)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>美的集团[000333](1.44%)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>国金证券[600109](1.43%)</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>顺丰控股[002352](1.42%)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>杭州银行[600926](1.41%)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>宝盈创新驱动股票A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>009491</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>张仲维</t>
+          <t>钟伟</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -5094,117 +4882,117 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>易方达信息行业精选股票</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>010013</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>郑希</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+          <t>金梓才</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>鹏鼎控股[002938](10.71%)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>新易盛[300502](8.65%)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>三花智控[002050](8.39%)</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>蓝思科技[300433](8.05%)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>东山精密[002384](7.36%)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>天孚通信[300394](7.19%)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>九洲药业[603456](6.58%)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>司太立[603520](6.51%)</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>博腾股份[300363](4.2%)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>华正新材[603186](4.08%)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>交银医药创新股票</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>004075</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>楼慧源</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>迈瑞医疗[300760](7.28%)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>药明康德[603259](7.18%)</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>恒瑞医药[600276](6.65%)</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>爱尔眼科[300015](5.87%)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>凯莱英[002821](4.12%)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>迈克生物[300463](3.84%)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>智飞生物[300122](3.82%)</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>通策医疗[600763](3.39%)</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>安图生物[603658](3.3%)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>泰格医药[300347](3.08%)</t>
-        </is>
-      </c>
+          <t>钟伟</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>华夏创新前沿股票</t>
+          <t>万家消费成长股票</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>002980</t>
+          <t>519193</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>林晶 屠环宇</t>
+          <t>高源</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5214,69 +5002,69 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>宁德时代[300750](6.47%)</t>
+          <t>美的集团[000333](7.05%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>石头科技[688169](6.06%)</t>
+          <t>中信证券[600030](6.68%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](4.92%)</t>
+          <t>宁波银行[002142](5.53%)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>爱尔眼科[300015](4.06%)</t>
+          <t>华泰证券[601688](5.48%)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>立讯精密[002475](4.03%)</t>
+          <t>招商银行[600036](4.82%)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>沃森生物[300142](3.59%)</t>
+          <t>芒果超媒[300413](4.58%)</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>中孚信息[300659](3.1%)</t>
+          <t>新华保险[601336](4.54%)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>深信服[300454](2.68%)</t>
+          <t>京东方A[000725](4.54%)</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>通威股份[600438](2.44%)</t>
+          <t>国泰君安[601211](4.46%)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>创业慧康[300451](2.37%)</t>
+          <t>三一重工[600031](4.43%)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>建信互联网+产业升级股票</t>
+          <t>银华尊尚稳健养老一年持有混合发起式</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>001396</t>
+          <t>007310</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>何珅华</t>
+          <t>肖侃宁 熊侃</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5286,141 +5074,81 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>贵州茅台[600519](8.95%)</t>
+          <t>中国太保[601601](0.17%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>五粮液[000858](8.72%)</t>
+          <t>常熟银行[601128](0.16%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>隆基股份[601012](7.05%)</t>
+          <t>杭州银行[600926](0.16%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>宁德时代[300750](6.8%)</t>
+          <t>宁波银行[002142](0.15%)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>欣旺达[300207](6.59%)</t>
+          <t>招商银行[600036](0.15%)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>太平鸟[603877](5.87%)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>泸州老窖[000568](5.22%)</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>立讯精密[002475](5.14%)</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>宝丰能源[600989](4.49%)</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>歌尔股份[002241](4.17%)</t>
-        </is>
-      </c>
+          <t>中国平安[601318](0.14%)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>招商医药健康产业股票</t>
+          <t>富国消费精选30股票</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>000960</t>
+          <t>010409</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>李佳存</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>智飞生物[300122](8.49%)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>大参林[603233](8.01%)</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>华兰生物[002007](7.93%)</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>健帆生物[300529](7.85%)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>泰格医药[300347](6.77%)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>万泰生物[603392](5.82%)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>英科医疗[300677](5.5%)</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>迪安诊断[300244](4.81%)</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>药明康德[603259](4.63%)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>华大基因[300676](4.15%)</t>
-        </is>
-      </c>
+          <t>王园园</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票A</t>
+          <t>前海开源优势蓝筹股票C</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>001717</t>
+          <t>001638</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>赵蓓</t>
+          <t>肖立强</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5430,69 +5158,69 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](7.41%)</t>
+          <t>海康威视[002415](5.55%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>智飞生物[300122](6.36%)</t>
+          <t>中国平安[601318](4.72%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>长春高新[000661](5.62%)</t>
+          <t>中国人寿[601628](4.62%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>健帆生物[300529](5.3%)</t>
+          <t>美的集团[000333](4.56%)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>康泰生物[300601](5.26%)</t>
+          <t>工商银行[601398](4.53%)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](4.75%)</t>
+          <t>云南白药[000538](4.5%)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>药明康德[603259](4.63%)</t>
+          <t>中信证券[600030](4.46%)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>英科医疗[300677](4.59%)</t>
+          <t>恒瑞医药[600276](4.44%)</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>九洲药业[603456](4.24%)</t>
+          <t>五粮液[000858](4.32%)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>博腾股份[300363](3.92%)</t>
+          <t>京东方A[000725](4.25%)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>华商电子行业量化股票</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>007685</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>郎超</t>
+          <t>艾定飞</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5502,69 +5230,69 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](9.92%)</t>
+          <t>立讯精密[002475](8.38%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](9.28%)</t>
+          <t>京东方A[000725](5.14%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>长春高新[000661](8.71%)</t>
+          <t>歌尔股份[002241](5.05%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>药明康德[603259](8.62%)</t>
+          <t>TCL科技[000100](3.7%)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>凯莱英[002821](6.26%)</t>
+          <t>海康威视[002415](3.29%)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>片仔癀[600436](5.84%)</t>
+          <t>北方华创[002371](3.17%)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>泰格医药[300347](5.75%)</t>
+          <t>韦尔股份[603501](3.07%)</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>大参林[603233](4.51%)</t>
+          <t>三安光电[600703](3.01%)</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>华兰生物[002007](4.46%)</t>
+          <t>紫光国微[002049](2.79%)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>康龙化成[300759](3.23%)</t>
+          <t>大华股份[002236](2.58%)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>工银养老产业股票</t>
+          <t>前海开源优势蓝筹股票A</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>001171</t>
+          <t>001162</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>赵蓓</t>
+          <t>肖立强</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5574,69 +5302,69 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>恒瑞医药[600276](6.86%)</t>
+          <t>海康威视[002415](5.55%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](6.38%)</t>
+          <t>中国平安[601318](4.72%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>康泰生物[300601](6.32%)</t>
+          <t>中国人寿[601628](4.62%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>长春高新[000661](5.4%)</t>
+          <t>美的集团[000333](4.56%)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>英科医疗[300677](5.38%)</t>
+          <t>工商银行[601398](4.53%)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>药明康德[603259](5.17%)</t>
+          <t>云南白药[000538](4.5%)</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>九洲药业[603456](5.17%)</t>
+          <t>中信证券[600030](4.46%)</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>杭氧股份[002430](5.16%)</t>
+          <t>恒瑞医药[600276](4.44%)</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>万孚生物[300482](4.23%)</t>
+          <t>五粮液[000858](4.32%)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>博腾股份[300363](4.06%)</t>
+          <t>京东方A[000725](4.25%)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>招商安泰偏股混合</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>217001</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>潘明曦</t>
+          <t>贺喆</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5646,141 +5374,97 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>安井食品[603345](5.53%)</t>
+          <t>比亚迪[002594](6.29%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>分众传媒[002027](4.53%)</t>
+          <t>司太立[603520](4.47%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>安车检测[300572](4.48%)</t>
+          <t>万科A[000002](4.43%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>绝味食品[603517](4.41%)</t>
+          <t>中国巨石[600176](4.35%)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>亿纬锂能[300014](4.19%)</t>
+          <t>中材科技[002080](4.18%)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>恩捷股份[002812](3.7%)</t>
+          <t>保利地产[600048](4.16%)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>亚厦股份[002375](3.63%)</t>
+          <t>金地集团[600383](3.76%)</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>海容冷链[603187](3.17%)</t>
+          <t>中兴通讯[000063](3.67%)</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>华海药业[600521](3.13%)</t>
+          <t>龙马环卫[603686](3.22%)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>华兰生物[002007](3.03%)</t>
+          <t>盈峰环境[000967](3.11%)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>国泰智能汽车股票</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>比亚迪[002594](9.62%)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>新泉股份[603179](9.13%)</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>宏发股份[600885](8.99%)</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>宁德时代[300750](7.36%)</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>法拉电子[600563](6.86%)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>科博达[603786](6.11%)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>中科电气[300035](5.71%)</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>新宙邦[300037](5.42%)</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>赣锋锂业[002460](5.39%)</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>三花智控[002050](5.23%)</t>
-        </is>
-      </c>
+          <t>杨桢霄</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>博时量化多策略股票C</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>005636</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>张继圣</t>
+          <t>黄瑞庆 林景艺</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5790,69 +5474,69 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>美团-W[03690](8.97%)</t>
+          <t>中国平安[601318](3.81%)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>腾讯控股[00700](8.85%)</t>
+          <t>贵州茅台[600519](3%)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>舜宇光学科技[02382](4.65%)</t>
+          <t>平安银行[000001](2.69%)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>友邦保险[01299](4.18%)</t>
+          <t>交通银行[601328](2.4%)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>建设银行[00939](3.87%)</t>
+          <t>中信证券[600030](2.4%)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>碧桂园服务[06098](3.7%)</t>
+          <t>兴业银行[601166](2.07%)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>ASM PACIFIC[00522](3.37%)</t>
+          <t>美的集团[000333](2.06%)</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>中国生物制药[01177](3.33%)</t>
+          <t>成都银行[601838](1.96%)</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>歌尔股份[002241](3.33%)</t>
+          <t>华夏银行[600015](1.84%)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>招商银行[03968](3.25%)</t>
+          <t>贵阳银行[601997](1.69%)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>工银农业产业股票</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>杨柯</t>
+          <t>龙宇飞 尤国梁</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5862,56 +5546,1048 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>春风动力[603129](7.79%)</t>
+          <t>鸿远电子[603267](6.35%)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>海大集团[002311](6.25%)</t>
+          <t>金山办公[688111](5.22%)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>瑞普生物[300119](4.96%)</t>
+          <t>立讯精密[002475](5.09%)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>隆平高科[000998](3.96%)</t>
+          <t>恒生电子[600570](5.03%)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>迈瑞医疗[300760](3.38%)</t>
+          <t>东方财富[300059](4.95%)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>普莱柯[603566](3.15%)</t>
+          <t>航发动力[600893](4.91%)</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>牧原股份[002714](3.07%)</t>
+          <t>航天发展[000547](4.91%)</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>北大荒[600598](2.77%)</t>
+          <t>同花顺[300033](4.88%)</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>大北农[002385](2.75%)</t>
+          <t>招商证券[600999](4.73%)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>扬农化工[600486](2.75%)</t>
+          <t>兴业证券[601377](4.72%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>彭炜</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>湘财长源股票型C</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>徐亦达</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>中信证券[600030](2.99%)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>东方财富[300059](2.53%)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>中航高科[600862](2.08%)</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>立讯精密[002475](1.95%)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>紫金矿业[601899](1.95%)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>中国建筑[601668](1.88%)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>华泰证券[601688](1.81%)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>航天电器[002025](1.76%)</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>三一重工[600031](1.75%)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>佳华科技[688051](1.68%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>杨桢霄</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>湘财长源股票型A</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>徐亦达</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>中信证券[600030](2.99%)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>东方财富[300059](2.53%)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>中航高科[600862](2.08%)</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>立讯精密[002475](1.95%)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>紫金矿业[601899](1.95%)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>中国建筑[601668](1.88%)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>华泰证券[601688](1.81%)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>航天电器[002025](1.76%)</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>三一重工[600031](1.75%)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>佳华科技[688051](1.68%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鲍无可</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>腾讯控股[00700](7.56%)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>信义光能[00968](6.74%)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>伊利股份[600887](6.39%)</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>中南传媒[601098](6.03%)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>美团-W[03690](5.94%)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>鹏鼎控股[002938](5.87%)</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>一心堂[002727](5.31%)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>川投能源[600674](5.26%)</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>华润置地[01109](5.05%)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>凤凰传媒[601928](4.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>黄瑞庆 林景艺</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>中国平安[601318](3.81%)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](3%)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>平安银行[000001](2.69%)</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>交通银行[601328](2.4%)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>中信证券[600030](2.4%)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>兴业银行[601166](2.07%)</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>美的集团[000333](2.06%)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>成都银行[601838](1.96%)</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>华夏银行[600015](1.84%)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>贵阳银行[601997](1.69%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>林庆</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>顺丰控股[002352](9.28%)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>海容冷链[603187](8.99%)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>科锐国际[300662](7.54%)</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>芒果超媒[300413](5.55%)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>锦江酒店[600754](5.12%)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>荣盛石化[002493](4.53%)</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>宁波银行[002142](3.78%)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>紫金矿业[601899](3.24%)</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>海大集团[002311](3.17%)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>道通科技[688208](3.12%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>俞诚</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>天顺风能[002531](1.95%)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>日月股份[603218](1.86%)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>东吴证券[601555](1.58%)</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>金科股份[000656](1.55%)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>兴业证券[601377](1.47%)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>中南建设[000961](1.45%)</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>无锡银行[600908](1.44%)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>恒逸石化[000703](1.42%)</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>中信建投[601066](1.39%)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>环旭电子[601231](1.38%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深C</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>成钧 毛时超</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>片仔癀[600436](9.22%)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>美的集团[000333](8.83%)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>招商银行[600036](7.49%)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>中国人寿[601628](5.55%)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>中信证券[600030](5.31%)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>宁波银行[002142](4.93%)</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>三钢闽光[002110](4.57%)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>兴业银行[601166](4.11%)</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>晨光文具[603899](3.77%)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>南京银行[601009](3.67%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>王筱苓</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>五粮液[000858](5.5%)</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>顺丰控股[002352](5.3%)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>双汇发展[000895](5.08%)</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](5%)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>分众传媒[002027](4.97%)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>福耀玻璃[600660](4.76%)</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>美的集团[000333](4.75%)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>扬农化工[600486](4.66%)</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>万科A[000002](3.79%)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>宁波银行[002142](3.28%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深A</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>成钧 毛时超</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>片仔癀[600436](9.22%)</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>美的集团[000333](8.83%)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>招商银行[600036](7.49%)</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>中国人寿[601628](5.55%)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>中信证券[600030](5.31%)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>宁波银行[002142](4.93%)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>三钢闽光[002110](4.57%)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>兴业银行[601166](4.11%)</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>晨光文具[603899](3.77%)</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>南京银行[601009](3.67%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化C</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>董梁</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>中国平安[601318](8.91%)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](8.82%)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>招商银行[600036](7.32%)</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>伊利股份[600887](5.34%)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>中国中免[601888](4.98%)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>三一重工[600031](4.06%)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>华泰证券[601688](3.65%)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>保利地产[600048](3.55%)</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>万华化学[600309](3.46%)</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>恒瑞医药[600276](3.01%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>叶乐天</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>微芯生物[688321](3.13%)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>鱼跃医疗[002223](2.06%)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>万科A[000002](1.87%)</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>新宝股份[002705](1.71%)</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>晨光生物[300138](1.7%)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>富祥药业[300497](1.63%)</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>美的集团[000333](1.62%)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>普洛药业[000739](1.44%)</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>安琪酵母[600298](1.4%)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>中顺洁柔[002511](1.36%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化A</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>董梁</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>中国平安[601318](8.91%)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>贵州茅台[600519](8.82%)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>招商银行[600036](7.32%)</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>伊利股份[600887](5.34%)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>中国中免[601888](4.98%)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>三一重工[600031](4.06%)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>华泰证券[601688](3.65%)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>保利地产[600048](3.55%)</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>万华化学[600309](3.46%)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>恒瑞医药[600276](3.01%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>朱睿</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>荣盛石化[002493](8.32%)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>玲珑轮胎[601966](7.96%)</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>桐昆股份[601233](7.37%)</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>山东黄金[600547](6.66%)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>恒力石化[600346](5.87%)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>银泰黄金[000975](5.75%)</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>分众传媒[002027](5.47%)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>中国平安[601318](4.12%)</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>金禾实业[002597](4%)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>新洋丰[000902](3.83%)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>